--- a/Notebooks/sample.xlsx
+++ b/Notebooks/sample.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whyno\Entwickler\Python\AutomaModela\Notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A87DC4-508F-4195-BBEC-EB05317426B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA0F21C-AA47-4544-A5CB-923ABC1F47B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37425" yWindow="3240" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="3330" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Tabelle1!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -52,13 +49,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -71,11 +74,32 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -87,15 +111,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -142,20 +174,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -185,12 +217,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -229,159 +261,184 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:XFD1048576"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,120 +449,119 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f ca="1">RAND()</f>
-        <v>0.57351831043555135</v>
-      </c>
-      <c r="B2">
-        <f t="shared" ref="B2:C9" ca="1" si="0">RAND()</f>
-        <v>0.64593969627497361</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33380494091201141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f t="shared" ref="A3:A9" ca="1" si="1">RAND()</f>
-        <v>0.13015581533175014</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.52405779753159321</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.43141017885360733</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.56402269746628331</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.7091130290837881E-2</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5416557578751473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.72497818668572755</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.99678867915622571</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.21012299715764371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5850995691972356E-2</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70090031101267092</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5703519495279323E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.8508421090819636E-2</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72014257353777733</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6736461958556546E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.23505147730644171</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16473367080560841</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45807659575500703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.1450563576684196E-2</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39145780314327294</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.8191788103881814E-2</v>
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f t="shared" ref="A2:C9" ca="1" si="0">RAND()</f>
+        <v>3.6660712732468292E-2</v>
+      </c>
+      <c r="B2" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41215736736350206</v>
+      </c>
+      <c r="C2" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48241248504004686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48317752366132383</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92395153963204923</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4466943610809706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37930602234655297</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8173934466098316</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.045479176503719E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76772788883055421</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84182269550521993</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34541178238774239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60204364595855908</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7765898291636284</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64488503738497394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18401307307920056</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45083786259373437</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24581796589361338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87278826062118287</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60389558784589248</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.311243591918693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33916873881393994</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47370644688142349</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.55987398909529917</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>